--- a/biology/Zoologie/Crocodile_du_Siam/Crocodile_du_Siam.xlsx
+++ b/biology/Zoologie/Crocodile_du_Siam/Crocodile_du_Siam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocodylus siamensis
-Crocodylus siamensis, le Crocodile du Siam, est une espèce de crocodiliens de la famille des Crocodylidae[1].
+Crocodylus siamensis, le Crocodile du Siam, est une espèce de crocodiliens de la famille des Crocodylidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Birmanie, en Thaïlande, au Laos, au Cambodge, au Viêt Nam, en Malaisie, au Brunei Darussalam et en Indonésie au Kalimantan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Birmanie, en Thaïlande, au Laos, au Cambodge, au Viêt Nam, en Malaisie, au Brunei Darussalam et en Indonésie au Kalimantan.
 Sa présence est incertaine à Java
 L'espèce a très fortement régressé voire disparu dans tous ces pays.
 </t>
@@ -545,11 +559,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le crocodile du Siam peut atteindre les 3 mètres de long, beaucoup plus rarement 4 mètres.
 Cette espèce mange des poissons.  
-La femelle pond de 20 à 48 œufs. L'incubation dure de 68 à 85 jours. Les petits quittent leur mère et chassent seuls au bout d'environ 80 jours[2].
+La femelle pond de 20 à 48 œufs. L'incubation dure de 68 à 85 jours. Les petits quittent leur mère et chassent seuls au bout d'environ 80 jours.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les populations actuelles sont très faibles : moins de 5 000 individus en captivité et peut-être 250 en liberté. L'avenir de l'espèce semble très critique d'autant que l'on ignore encore presque tout de sa réelle distribution. Si les populations semblaient avoir disparu de Thaïlande, les derniers individus ont pu survivre et se reproduire dans le parc national de Kaeng Krachan[3],[4], dans le lac Nong Han, dernier refuge du crocodile du Siam ; leur population à l'état sauvage dans ce pays est estimée à une vingtaine d'individus début 2021[5]. Les programmes d'élevage au Cambodge sont une réussite[réf. souhaitée]. Mais dans ce pays, la réduction de la population semble irrémédiable.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les populations actuelles sont très faibles : moins de 5 000 individus en captivité et peut-être 250 en liberté. L'avenir de l'espèce semble très critique d'autant que l'on ignore encore presque tout de sa réelle distribution. Si les populations semblaient avoir disparu de Thaïlande, les derniers individus ont pu survivre et se reproduire dans le parc national de Kaeng Krachan dans le lac Nong Han, dernier refuge du crocodile du Siam ; leur population à l'état sauvage dans ce pays est estimée à une vingtaine d'individus début 2021. Les programmes d'élevage au Cambodge sont une réussite[réf. souhaitée]. Mais dans ce pays, la réduction de la population semble irrémédiable.
 Les principales menaces sont la chasse et la destruction de son habitat qui est converti pour l'agriculture. La valeur de sa peau devrait permettre un essor de son élevage. De plus, le faible danger qu'il représente, devrait être un argument supplémentaire pour les populations. La possible hybridation avec Crocodylus porosus dans ces fermes d'élevage pourrait être une nouvelle menace.
 Mais le plus grand danger pour le crocodile du Siam est le trafic pour alimenter les restaurants chinois : la police chinoise, de la région de Guangxi Zhuang, a saisi plus de 3.600 crocodiles du Siam, aux abords de la frontière vietnamienne[réf. nécessaire]. 
 </t>
@@ -611,10 +629,12 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'imaginaire thaïlandais, les animaux des forêts tropicales sont très présents. Contes et légendes racontent des histoires de crocodiles du Siam, aux côtés de tigres, d'éléphants... 
-De très anciennes croyances siamoises parlent d'hommes pouvant se transformer en animaux : en crocodiles du Siam dans la  légende de Kraithong[6],[7] (souvent adaptée en film[8]) et dans Khun Chang Khun Phaen[9] (thaï: ขุนช้างขุนแผน[10])[11], la première grande œuvre littéraire thaïlandaise, très longue épopée en vers qui se déroule vers l'an 1500, épopée adaptée en film en 2002.
+De très anciennes croyances siamoises parlent d'hommes pouvant se transformer en animaux : en crocodiles du Siam dans la  légende de Kraithong, (souvent adaptée en film) et dans Khun Chang Khun Phaen (thaï: ขุนช้างขุนแผน), la première grande œuvre littéraire thaïlandaise, très longue épopée en vers qui se déroule vers l'an 1500, épopée adaptée en film en 2002.
 </t>
         </is>
       </c>
@@ -643,7 +663,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de siam et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Siam, l'ancien nom de la Thaïlande.
 </t>
@@ -674,7 +696,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Schneider, 1801 : Historiae Amphibiorum naturalis et literariae. Fasciculus secundus continens Crocodilos, Scincos, Chamaesauras, Boas. Pseudoboas, Elapes, Angues. Amphisbaenas et Caecilias. Frommani, Jena, p. 1-374 (texte intégral).</t>
         </is>
